--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/20/seed5/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.022</v>
+        <v>-7.812</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.370000000000001</v>
+        <v>-8.032</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>13.218</v>
+        <v>12.718</v>
       </c>
     </row>
     <row r="7">
@@ -556,10 +556,10 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.331999999999999</v>
+        <v>-8.055999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>12.968</v>
+        <v>12.708</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.764</v>
+        <v>-8.010999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>12.964</v>
+        <v>13.03</v>
       </c>
     </row>
     <row r="9">
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.728</v>
+        <v>-12.634</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.51</v>
+        <v>-12.976</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.481999999999999</v>
+        <v>-7.992999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.284000000000001</v>
+        <v>-8.224</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -689,7 +689,7 @@
         <v>5.53</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.728</v>
+        <v>-12.493</v>
       </c>
       <c r="D15" t="n">
         <v>-6.43</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.37</v>
+        <v>12.36</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.768</v>
+        <v>13.136</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.022</v>
+        <v>-7.811999999999999</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.066</v>
+        <v>12.623</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.37</v>
+        <v>12.36</v>
       </c>
     </row>
   </sheetData>
